--- a/testSolutions/CircleMap.xlsx
+++ b/testSolutions/CircleMap.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hpe-my.sharepoint.com/personal/melanie_stach_hpe_com/Documents/Documents/02_Theorie/6.Semester/KI/Lösungen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wetzelm\OneDrive - Hewlett Packard Enterprise\DHBW\KI\a-star-algorithm\testSolutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4EE4960-0CD9-4BC3-867F-A2F6BC1CE7A2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11208" xr2:uid="{15D2A7F7-F5D3-4217-8186-7BD037C93E32}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="20850" windowHeight="11210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Code</t>
   </si>
@@ -65,11 +64,14 @@
   <si>
     <t>Felswand</t>
   </si>
+  <si>
+    <t>Prüft, dass der Algorithmus anfangs nicht im Kreis verläuft, sondern sich richtung Ziel bewegt.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -421,16 +423,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC8B1312-5803-4A4C-AD84-4964A5BD6176}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>5</v>
       </c>
@@ -477,7 +479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>5</v>
       </c>
@@ -511,20 +513,20 @@
       <c r="K2">
         <v>3</v>
       </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L2" s="1">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>5</v>
       </c>
@@ -558,7 +560,7 @@
       <c r="K3">
         <v>5</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <v>2</v>
       </c>
       <c r="M3">
@@ -571,7 +573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>5</v>
       </c>
@@ -605,7 +607,7 @@
       <c r="K4">
         <v>5</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <v>2</v>
       </c>
       <c r="M4">
@@ -618,7 +620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5</v>
       </c>
@@ -652,7 +654,7 @@
       <c r="K5">
         <v>5</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <v>2</v>
       </c>
       <c r="M5">
@@ -665,7 +667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0</v>
       </c>
@@ -699,7 +701,7 @@
       <c r="K6">
         <v>5</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="1">
         <v>2</v>
       </c>
       <c r="M6">
@@ -712,7 +714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3</v>
       </c>
@@ -746,7 +748,7 @@
       <c r="K7">
         <v>5</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="1">
         <v>2</v>
       </c>
       <c r="M7">
@@ -759,7 +761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>3</v>
       </c>
@@ -793,7 +795,7 @@
       <c r="K8">
         <v>5</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="1">
         <v>2</v>
       </c>
       <c r="M8">
@@ -806,7 +808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>3</v>
       </c>
@@ -840,7 +842,7 @@
       <c r="K9">
         <v>0</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="1">
         <v>2</v>
       </c>
       <c r="M9">
@@ -853,7 +855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0</v>
       </c>
@@ -881,13 +883,13 @@
       <c r="I10">
         <v>5</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <v>4</v>
       </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
+      <c r="K10" s="1">
+        <v>2</v>
+      </c>
+      <c r="L10" s="1">
         <v>2</v>
       </c>
       <c r="M10">
@@ -900,7 +902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>3</v>
       </c>
@@ -928,7 +930,7 @@
       <c r="I11">
         <v>5</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <v>1</v>
       </c>
       <c r="K11">
@@ -947,7 +949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0</v>
       </c>
@@ -957,25 +959,25 @@
       <c r="C12">
         <v>5</v>
       </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-      <c r="H12">
-        <v>5</v>
-      </c>
-      <c r="I12">
-        <v>5</v>
-      </c>
-      <c r="J12">
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1">
+        <v>5</v>
+      </c>
+      <c r="J12" s="1">
         <v>1</v>
       </c>
       <c r="K12">
@@ -994,7 +996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1004,7 +1006,7 @@
       <c r="C13">
         <v>5</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>2</v>
       </c>
       <c r="E13">
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1088,7 +1090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1098,7 +1100,7 @@
       <c r="C15">
         <v>5</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>2</v>
       </c>
       <c r="E15">
@@ -1135,7 +1137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1152,7 +1154,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1169,7 +1171,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1186,7 +1188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1197,7 +1199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1207,8 +1209,11 @@
       <c r="C21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>4</v>
       </c>
@@ -1219,7 +1224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>5</v>
       </c>
@@ -1236,6 +1241,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009FBF8661AD2E354FAE87329803412157" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c16c4dd9e2e32f088242a579a7e24e23">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1e44a191-92cd-4afa-9687-f5bf1469df19" xmlns:ns4="6b5e8f27-ce12-4388-9f1e-22f0df822b36" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25951810f8527d332c4c5b5f678f3a0e" ns3:_="" ns4:_="">
     <xsd:import namespace="1e44a191-92cd-4afa-9687-f5bf1469df19"/>
@@ -1458,22 +1478,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44E7CBEA-67FE-4016-93C6-00CCEBCA248B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1e44a191-92cd-4afa-9687-f5bf1469df19"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6b5e8f27-ce12-4388-9f1e-22f0df822b36"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A41A0A9-DDF1-43D5-9470-13D22F7AC263}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6F74F21-8D77-49D4-8A22-59716CEA7053}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1490,29 +1520,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A41A0A9-DDF1-43D5-9470-13D22F7AC263}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44E7CBEA-67FE-4016-93C6-00CCEBCA248B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e44a191-92cd-4afa-9687-f5bf1469df19"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6b5e8f27-ce12-4388-9f1e-22f0df822b36"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>